--- a/biology/Médecine/Goutte_(pharmacie_galénique)/Goutte_(pharmacie_galénique).xlsx
+++ b/biology/Médecine/Goutte_(pharmacie_galénique)/Goutte_(pharmacie_galénique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Goutte_(pharmacie_gal%C3%A9nique)</t>
+          <t>Goutte_(pharmacie_galénique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Une goutte est une forme galénique. En gouttes, le médicament est liquide, donné en flacon, instillé sous forme de gouttes, avec  un compte-gouttes : gouttes oculaires (gouttes ophtalmiques ou collyres) (voie ophtalmique), gouttes nasales (voie nasale), gouttes auriculaires (voie auriculaire), goutte buccale (voie buccale) et goutte buvable (voie orale).
 « Médicaments qu'on donne par gouttes (guttatim). Ce sont en général des calmants prescrits particulièrement dans les maladies nerveuses » (Littré)
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Goutte_(pharmacie_gal%C3%A9nique)</t>
+          <t>Goutte_(pharmacie_galénique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Autrefois</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gouttes anglaises
 Gouttes céphaliques
